--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1321638.335484241</v>
+        <v>1317626.532752144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140342</v>
+        <v>6432656.960140344</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4618291.274014972</v>
+        <v>4618291.274014973</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>93.88098048352096</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>15.31833829254767</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>22.30754506344897</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>197.4695344087513</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>141.2187927136777</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>53.20655220102336</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>51.12214921202253</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1824,13 +1824,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>112.8562124074903</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>135.9957333697985</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>35.86929306883562</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22623156101888</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
         <v>71.96559361603954</v>
@@ -2058,7 +2058,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>74.50920514641284</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>291.2382921077273</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.837347402760178</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2253,7 +2253,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
-        <v>20.74104248904631</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>1.414590278639325</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>5.211119789569582</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>140.3858602447905</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.333984989982</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>158.5873000794452</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>274.5392124624013</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>257.7940109339083</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899809</v>
+        <v>277.3339849899806</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,22 +2794,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>54.88883169849889</v>
+        <v>25.18018814520646</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3040,10 +3040,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>91.6892320524032</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.6951248180828</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>350.1801817133727</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>232.5347330577724</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>15.75775879579322</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>15.81760059280037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>304.5084332562904</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>77.454214636616</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2173101344814</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>15.66075014512963</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
@@ -3720,10 +3720,10 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>81.52539156816806</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3751,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>395.0068731377281</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>152.7757484979471</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.7030512222169</v>
@@ -3918,7 +3918,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>112.0461372620075</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>118.6386197839294</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>135.6325789894108</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.90232159652739</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7030512222169</v>
@@ -4155,7 +4155,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>56.45811149215327</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1667.422259516197</v>
+        <v>1297.112211475512</v>
       </c>
       <c r="C11" t="n">
-        <v>1240.521529529497</v>
+        <v>870.211481488812</v>
       </c>
       <c r="D11" t="n">
-        <v>817.2289087144973</v>
+        <v>870.211481488812</v>
       </c>
       <c r="E11" t="n">
-        <v>817.2289087144973</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
@@ -5059,34 +5059,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.14225834845</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.14225834845</v>
+        <v>2122.297845812152</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.14225834845</v>
+        <v>2122.297845812152</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.14225834845</v>
+        <v>2122.297845812152</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.14225834845</v>
+        <v>2122.297845812152</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516197</v>
+        <v>2122.297845812152</v>
       </c>
       <c r="Y11" t="n">
-        <v>1667.422259516197</v>
+        <v>1716.960575767042</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,34 +5111,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J12" t="n">
-        <v>404.4659091426543</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109025</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333022</v>
+        <v>496.0652591283641</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838655</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>992.520525718061</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1399.453043391742</v>
       </c>
       <c r="Q12" t="n">
         <v>1773.7346928875</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>716.1147343627898</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C13" t="n">
-        <v>544.1421712417058</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="D13" t="n">
-        <v>380.8253983684765</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="E13" t="n">
-        <v>214.6171925213301</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F13" t="n">
-        <v>42.75541829589048</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L13" t="n">
-        <v>899.647127896349</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.745429307994</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.855293085983</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O13" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.215415329222</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U13" t="n">
-        <v>1931.751239158766</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.039771766795</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W13" t="n">
-        <v>1375.187367939308</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.623471385113</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.2807030748554</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.49941041813628</v>
+        <v>1717.922550502993</v>
       </c>
       <c r="C14" t="n">
-        <v>96.49941041813628</v>
+        <v>1291.021820516293</v>
       </c>
       <c r="D14" t="n">
-        <v>96.49941041813628</v>
+        <v>1291.021820516293</v>
       </c>
       <c r="E14" t="n">
-        <v>96.49941041813628</v>
+        <v>865.0448806641506</v>
       </c>
       <c r="F14" t="n">
-        <v>96.49941041813628</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
-        <v>96.49941041813628</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103563</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
         <v>222.2360596072042</v>
       </c>
       <c r="K14" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L14" t="n">
         <v>709.5851800848318</v>
@@ -5296,7 +5296,7 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.878716272599</v>
@@ -5308,22 +5308,22 @@
         <v>2137.770914794523</v>
       </c>
       <c r="T14" t="n">
-        <v>1925.631778790232</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U14" t="n">
-        <v>1667.437443868902</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V14" t="n">
-        <v>1309.948028995152</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="W14" t="n">
-        <v>913.5566792954987</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="X14" t="n">
-        <v>501.836680463246</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.49941041813628</v>
+        <v>2137.770914794523</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.010408857749</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259972</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483969</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N15" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O15" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6384156473183</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C16" t="n">
-        <v>754.6658525262343</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D16" t="n">
-        <v>754.6658525262343</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E16" t="n">
-        <v>588.4576466790878</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F16" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I16" t="n">
         <v>42.75541829589046</v>
@@ -5439,49 +5439,49 @@
         <v>84.71320548484806</v>
       </c>
       <c r="K16" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L16" t="n">
-        <v>523.2582343051843</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M16" t="n">
-        <v>1052.356535716829</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N16" t="n">
-        <v>1564.884713700229</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O16" t="n">
-        <v>1852.309315854112</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V16" t="n">
-        <v>1457.143326818622</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.147152669642</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X16" t="n">
-        <v>1343.147152669642</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.804384359384</v>
+        <v>438.2282902000126</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2137.770914794523</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.870184807823</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D17" t="n">
-        <v>1573.500757161562</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.523817309419</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103615</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072044</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L17" t="n">
         <v>709.585180084832</v>
@@ -5533,7 +5533,7 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.878716272599</v>
@@ -5551,16 +5551,16 @@
         <v>2137.770914794523</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794523</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="W17" t="n">
-        <v>2137.770914794523</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="X17" t="n">
-        <v>2137.770914794523</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="Y17" t="n">
-        <v>2137.770914794523</v>
+        <v>1744.049890760332</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745214</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J18" t="n">
-        <v>404.4659091426543</v>
+        <v>404.4659091426546</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109025</v>
+        <v>552.2568635109028</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333022</v>
+        <v>758.5074531333025</v>
       </c>
       <c r="M18" t="n">
         <v>1002.337654088804</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.197659861665</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="C19" t="n">
-        <v>356.225096740581</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="D19" t="n">
-        <v>287.3097113254104</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="E19" t="n">
-        <v>287.3097113254104</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="F19" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H19" t="n">
         <v>115.4479370999708</v>
@@ -5673,25 +5673,25 @@
         <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613571</v>
+        <v>306.3087174642592</v>
       </c>
       <c r="L19" t="n">
-        <v>977.56884454457</v>
+        <v>415.8032076563071</v>
       </c>
       <c r="M19" t="n">
-        <v>1506.667145956214</v>
+        <v>944.9015090679516</v>
       </c>
       <c r="N19" t="n">
-        <v>1621.162401097735</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O19" t="n">
-        <v>2003.682813232011</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794523</v>
@@ -5706,19 +5706,19 @@
         <v>1743.834164657642</v>
       </c>
       <c r="U19" t="n">
-        <v>1743.834164657642</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V19" t="n">
-        <v>1462.12269726567</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.270293438183</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X19" t="n">
-        <v>944.7063968839885</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y19" t="n">
-        <v>718.3636285737306</v>
+        <v>589.3092351300555</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1188.960423131299</v>
+        <v>892.9487690975901</v>
       </c>
       <c r="C20" t="n">
-        <v>762.0596931445987</v>
+        <v>466.0480391108902</v>
       </c>
       <c r="D20" t="n">
-        <v>762.0596931445987</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E20" t="n">
-        <v>762.0596931445987</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F20" t="n">
-        <v>336.9355113339989</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.003122344158</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.808787422829</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V20" t="n">
-        <v>1608.808787422829</v>
+        <v>2129.854402266482</v>
       </c>
       <c r="W20" t="n">
-        <v>1608.808787422829</v>
+        <v>2129.854402266482</v>
       </c>
       <c r="X20" t="n">
-        <v>1608.808787422829</v>
+        <v>1718.13440343423</v>
       </c>
       <c r="Y20" t="n">
-        <v>1608.808787422829</v>
+        <v>1312.79713338912</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,34 +5822,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J21" t="n">
         <v>165.481020982128</v>
       </c>
       <c r="K21" t="n">
-        <v>313.2719753503762</v>
+        <v>313.2719753503761</v>
       </c>
       <c r="L21" t="n">
-        <v>519.522564972776</v>
+        <v>519.5225649727759</v>
       </c>
       <c r="M21" t="n">
-        <v>763.3527659282773</v>
+        <v>763.3527659282772</v>
       </c>
       <c r="N21" t="n">
         <v>1015.977831562473</v>
       </c>
       <c r="O21" t="n">
-        <v>1243.469695585332</v>
+        <v>1243.469695585331</v>
       </c>
       <c r="P21" t="n">
-        <v>1556.439737111774</v>
+        <v>1422.910349236153</v>
       </c>
       <c r="Q21" t="n">
         <v>1668.279192602594</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.955188520548</v>
+        <v>761.2817982511395</v>
       </c>
       <c r="C22" t="n">
-        <v>917.9826253994637</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="D22" t="n">
-        <v>754.6658525262344</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="E22" t="n">
-        <v>588.4576466790879</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574696</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H22" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484807</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>828.9254504309986</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M22" t="n">
-        <v>944.901509067952</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.396764209472</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>1723.616423865865</v>
       </c>
       <c r="P22" t="n">
         <v>1936.878861502259</v>
@@ -5934,28 +5934,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S22" t="n">
-        <v>2116.82036682579</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T22" t="n">
-        <v>2116.82036682579</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.685028452071</v>
+        <v>1696.635714724478</v>
       </c>
       <c r="V22" t="n">
-        <v>1554.9735610601</v>
+        <v>1695.206835655145</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.121157232613</v>
+        <v>1420.354431827658</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.121157232613</v>
+        <v>1177.790535273463</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.121157232613</v>
+        <v>951.4477669632051</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1766.628920909205</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="C23" t="n">
-        <v>1339.728190922506</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="D23" t="n">
-        <v>916.4355701075058</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>490.4586302553633</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
-        <v>65.33444844476355</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>631.2805511005022</v>
+        <v>596.1507915280439</v>
       </c>
       <c r="K23" t="n">
-        <v>846.1136630542981</v>
+        <v>810.9839034818397</v>
       </c>
       <c r="L23" t="n">
-        <v>1118.62967157813</v>
+        <v>1083.499912005671</v>
       </c>
       <c r="M23" t="n">
-        <v>1731.483012371472</v>
+        <v>1391.872763286488</v>
       </c>
       <c r="N23" t="n">
-        <v>2045.595402641463</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O23" t="n">
-        <v>2340.035845641987</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P23" t="n">
-        <v>2585.727538982949</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q23" t="n">
-        <v>2762.403697278423</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078098</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078098</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078098</v>
+        <v>2803.10199839486</v>
       </c>
       <c r="U23" t="n">
-        <v>3003.534554078098</v>
+        <v>2544.907663473531</v>
       </c>
       <c r="V23" t="n">
-        <v>3003.534554078098</v>
+        <v>2544.907663473531</v>
       </c>
       <c r="W23" t="n">
-        <v>3003.534554078098</v>
+        <v>2148.516313773878</v>
       </c>
       <c r="X23" t="n">
-        <v>2591.814555245845</v>
+        <v>1736.796314941625</v>
       </c>
       <c r="Y23" t="n">
-        <v>2186.477285200735</v>
+        <v>1736.796314941625</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387123</v>
+        <v>615.7482796387122</v>
       </c>
       <c r="C24" t="n">
-        <v>498.2423761562171</v>
+        <v>498.242376156217</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273435</v>
+        <v>196.0546536273434</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734008</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312363</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>421.781181928326</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>569.5721362965742</v>
       </c>
       <c r="L24" t="n">
-        <v>670.3672256340677</v>
+        <v>775.8227259189739</v>
       </c>
       <c r="M24" t="n">
-        <v>914.1974265895691</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N24" t="n">
-        <v>1166.822492223765</v>
+        <v>1272.277992508671</v>
       </c>
       <c r="O24" t="n">
-        <v>1394.314356246624</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P24" t="n">
-        <v>1573.755009897445</v>
+        <v>1679.210510182351</v>
       </c>
       <c r="Q24" t="n">
-        <v>1685.594465388265</v>
+        <v>1791.049965673171</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054827</v>
+        <v>884.3681777054826</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.6752890587751</v>
+        <v>744.675289058775</v>
       </c>
     </row>
     <row r="25">
@@ -6126,7 +6126,7 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D25" t="n">
         <v>771.9811253119058</v>
@@ -6135,7 +6135,7 @@
         <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G25" t="n">
         <v>268.554527843141</v>
@@ -6144,10 +6144,10 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156195</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705196</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K25" t="n">
         <v>431.0790168988077</v>
@@ -6168,16 +6168,16 @@
         <v>2836.484215057983</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078098</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.534692381771</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>899.9041002839306</v>
+        <v>1189.407938699469</v>
       </c>
       <c r="C26" t="n">
-        <v>899.9041002839306</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="D26" t="n">
-        <v>899.9041002839306</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="E26" t="n">
-        <v>899.9041002839306</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F26" t="n">
-        <v>739.714908284491</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G26" t="n">
         <v>337.3830269021693</v>
@@ -6229,22 +6229,22 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>1150.594152566822</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L26" t="n">
-        <v>1423.110161090654</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.483012371471</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129461</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470423</v>
       </c>
       <c r="Q26" t="n">
         <v>2762.403697278422</v>
@@ -6253,25 +6253,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2533.201083152476</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V26" t="n">
-        <v>2533.201083152476</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="W26" t="n">
-        <v>2136.809733452823</v>
+        <v>2426.313571868362</v>
       </c>
       <c r="X26" t="n">
-        <v>1725.08973462057</v>
+        <v>2014.593573036109</v>
       </c>
       <c r="Y26" t="n">
-        <v>1319.752464575461</v>
+        <v>1609.256302990999</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J27" t="n">
-        <v>421.7811819283256</v>
+        <v>421.781181928326</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965738</v>
+        <v>569.5721362965742</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>775.8227259189739</v>
       </c>
       <c r="M27" t="n">
         <v>1019.652926874475</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1272.277992508671</v>
       </c>
       <c r="O27" t="n">
         <v>1499.76985653153</v>
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6387,22 +6387,22 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K28" t="n">
-        <v>397.2373026266571</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6411,25 +6411,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>542.4146854101799</v>
+        <v>1762.230848421632</v>
       </c>
       <c r="C29" t="n">
-        <v>115.51395542348</v>
+        <v>1762.230848421632</v>
       </c>
       <c r="D29" t="n">
-        <v>115.51395542348</v>
+        <v>1338.938227606632</v>
       </c>
       <c r="E29" t="n">
-        <v>115.51395542348</v>
+        <v>912.9612877544899</v>
       </c>
       <c r="F29" t="n">
-        <v>115.51395542348</v>
+        <v>487.8371059438902</v>
       </c>
       <c r="G29" t="n">
-        <v>115.51395542348</v>
+        <v>85.50522456156847</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>596.1507915280436</v>
+        <v>239.5513323928759</v>
       </c>
       <c r="K29" t="n">
-        <v>810.9839034818394</v>
+        <v>454.3844443466717</v>
       </c>
       <c r="L29" t="n">
-        <v>1083.499912005671</v>
+        <v>726.9004528705034</v>
       </c>
       <c r="M29" t="n">
-        <v>1391.872763286488</v>
+        <v>1454.459258784885</v>
       </c>
       <c r="N29" t="n">
-        <v>1705.985153556479</v>
+        <v>2197.834060919214</v>
       </c>
       <c r="O29" t="n">
-        <v>2000.425596557003</v>
+        <v>2492.274503919738</v>
       </c>
       <c r="P29" t="n">
-        <v>2246.117289897965</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2533.201083152476</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V29" t="n">
-        <v>2175.711668278725</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W29" t="n">
-        <v>1779.320318579072</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="X29" t="n">
-        <v>1367.60031974682</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="Y29" t="n">
-        <v>962.26304970171</v>
+        <v>2182.079212713162</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>159.3389879233876</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>307.1299422916358</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>513.3805319140355</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>757.2107328695367</v>
       </c>
       <c r="N30" t="n">
         <v>1009.835798503732</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851353</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119062</v>
+        <v>771.981125311906</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647595</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393199</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431414</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I31" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1446.473939781796</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N31" t="n">
-        <v>1959.002117765196</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O31" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P31" t="n">
-        <v>2836.484215057983</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6651,7 +6651,7 @@
         <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
         <v>2322.906966102196</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1592.592578123333</v>
+        <v>1615.384878551612</v>
       </c>
       <c r="C32" t="n">
-        <v>1165.691848136633</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="D32" t="n">
-        <v>1165.691848136633</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="E32" t="n">
-        <v>739.714908284491</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F32" t="n">
-        <v>739.714908284491</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G32" t="n">
         <v>337.3830269021693</v>
@@ -6703,25 +6703,25 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>1150.594152566822</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L32" t="n">
-        <v>1423.110161090654</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1731.483012371471</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129461</v>
       </c>
       <c r="P32" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470423</v>
       </c>
       <c r="Q32" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
@@ -6730,22 +6730,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2732.766761627731</v>
+        <v>2852.290511720504</v>
       </c>
       <c r="U32" t="n">
-        <v>2732.766761627731</v>
+        <v>2852.290511720504</v>
       </c>
       <c r="V32" t="n">
-        <v>2408.832292114516</v>
+        <v>2852.290511720504</v>
       </c>
       <c r="W32" t="n">
-        <v>2012.440942414863</v>
+        <v>2852.290511720504</v>
       </c>
       <c r="X32" t="n">
-        <v>2012.440942414863</v>
+        <v>2440.570512888251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2012.440942414863</v>
+        <v>2035.233242843142</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>80.2996630831236</v>
       </c>
       <c r="J33" t="n">
-        <v>421.7811819283256</v>
+        <v>421.781181928326</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965738</v>
+        <v>569.5721362965742</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189736</v>
+        <v>775.8227259189739</v>
       </c>
       <c r="M33" t="n">
         <v>1019.652926874475</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1272.277992508671</v>
       </c>
       <c r="O33" t="n">
         <v>1499.76985653153</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119062</v>
+        <v>771.981125311906</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647595</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H34" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I34" t="n">
         <v>60.07069108156194</v>
@@ -6882,13 +6882,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R34" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T34" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
         <v>2322.906966102196</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1529.240429090579</v>
+        <v>1247.573895224666</v>
       </c>
       <c r="C35" t="n">
-        <v>1529.240429090579</v>
+        <v>1247.573895224666</v>
       </c>
       <c r="D35" t="n">
-        <v>1105.947808275579</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E35" t="n">
-        <v>679.9708684234369</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F35" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T35" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U35" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V35" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W35" t="n">
-        <v>1529.240429090579</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X35" t="n">
-        <v>1529.240429090579</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y35" t="n">
-        <v>1529.240429090579</v>
+        <v>1667.422259516196</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,37 +7007,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J36" t="n">
-        <v>404.4659091426541</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109023</v>
+        <v>313.2719753503761</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333022</v>
+        <v>519.5225649727759</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282772</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585331</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236153</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.5066837189729</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="C37" t="n">
-        <v>230.5341205978889</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="D37" t="n">
-        <v>230.5341205978889</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="E37" t="n">
-        <v>230.5341205978889</v>
+        <v>395.9511842536708</v>
       </c>
       <c r="F37" t="n">
-        <v>58.67234637244928</v>
+        <v>224.0894100282312</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589047</v>
+        <v>58.73279263205245</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J37" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K37" t="n">
-        <v>491.6854607613571</v>
+        <v>372.4054965735853</v>
       </c>
       <c r="L37" t="n">
-        <v>977.5688445445701</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M37" t="n">
-        <v>1322.603833371155</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1437.099088512675</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S37" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T37" t="n">
-        <v>1898.278526888668</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U37" t="n">
-        <v>1618.14318851495</v>
+        <v>1611.587689049647</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.431721122978</v>
+        <v>1329.876221657676</v>
       </c>
       <c r="W37" t="n">
-        <v>1061.579317295491</v>
+        <v>1055.023817830189</v>
       </c>
       <c r="X37" t="n">
-        <v>819.0154207412965</v>
+        <v>812.4599212759944</v>
       </c>
       <c r="Y37" t="n">
-        <v>592.6726524310385</v>
+        <v>586.1171529657364</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1169.33731478364</v>
+        <v>777.2404242990453</v>
       </c>
       <c r="C38" t="n">
-        <v>1169.33731478364</v>
+        <v>350.3396943123454</v>
       </c>
       <c r="D38" t="n">
-        <v>746.0446939686403</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
@@ -7189,13 +7189,13 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794523</v>
@@ -7204,22 +7204,22 @@
         <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U38" t="n">
-        <v>2079.142258348449</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V38" t="n">
-        <v>2000.905677907423</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="W38" t="n">
-        <v>2000.905677907423</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="X38" t="n">
-        <v>1589.18567907517</v>
+        <v>1197.088788590575</v>
       </c>
       <c r="Y38" t="n">
-        <v>1589.18567907517</v>
+        <v>1197.088788590575</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,22 +7244,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J39" t="n">
-        <v>404.4659091426541</v>
+        <v>404.4659091426546</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109023</v>
+        <v>552.2568635109028</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333022</v>
+        <v>758.5074531333025</v>
       </c>
       <c r="M39" t="n">
         <v>1002.337654088804</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.5066837189729</v>
+        <v>804.6261927074052</v>
       </c>
       <c r="C40" t="n">
-        <v>230.5341205978889</v>
+        <v>632.6536295863211</v>
       </c>
       <c r="D40" t="n">
-        <v>67.21734772465956</v>
+        <v>469.3368567130918</v>
       </c>
       <c r="E40" t="n">
-        <v>67.21734772465956</v>
+        <v>303.1286508659454</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589047</v>
+        <v>131.2668766405058</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589047</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589047</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K40" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>859.6023110688366</v>
+        <v>708.228813690938</v>
       </c>
       <c r="M40" t="n">
-        <v>1388.700612480481</v>
+        <v>1237.327115102582</v>
       </c>
       <c r="N40" t="n">
-        <v>1901.228790463882</v>
+        <v>1749.855293085983</v>
       </c>
       <c r="O40" t="n">
-        <v>2003.682813232012</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794523</v>
@@ -7359,25 +7359,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S40" t="n">
-        <v>2137.770914794523</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T40" t="n">
-        <v>1898.278526888668</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U40" t="n">
-        <v>1618.14318851495</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.431721122978</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="W40" t="n">
-        <v>1061.579317295491</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="X40" t="n">
-        <v>819.0154207412965</v>
+        <v>1221.134929729729</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.6726524310385</v>
+        <v>994.7921614194709</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1318.925708949733</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="C41" t="n">
-        <v>892.0249789630327</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="D41" t="n">
-        <v>468.7323581480329</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E41" t="n">
-        <v>42.75541829589047</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P41" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R41" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.774073241263</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.774073241263</v>
+        <v>2079.142258348449</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,37 +7481,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I42" t="n">
-        <v>86.44169614186399</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J42" t="n">
-        <v>299.0104088577483</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K42" t="n">
-        <v>446.8013632259966</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L42" t="n">
-        <v>653.0519528483964</v>
+        <v>758.5074531333029</v>
       </c>
       <c r="M42" t="n">
-        <v>896.8821538038977</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N42" t="n">
-        <v>1149.507219438093</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O42" t="n">
-        <v>1376.999083460952</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P42" t="n">
-        <v>1556.439737111774</v>
+        <v>1661.89523739668</v>
       </c>
       <c r="Q42" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.5958724536483</v>
+        <v>908.9847904029486</v>
       </c>
       <c r="C43" t="n">
-        <v>416.5958724536483</v>
+        <v>908.9847904029486</v>
       </c>
       <c r="D43" t="n">
-        <v>416.5958724536483</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E43" t="n">
-        <v>416.5958724536483</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F43" t="n">
         <v>416.5958724536483</v>
@@ -7566,28 +7566,28 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484807</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K43" t="n">
-        <v>166.4811349991142</v>
+        <v>244.402851647335</v>
       </c>
       <c r="L43" t="n">
-        <v>481.8999867656335</v>
+        <v>353.8973418393829</v>
       </c>
       <c r="M43" t="n">
-        <v>1010.998288177278</v>
+        <v>882.9956432510273</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.526466160678</v>
+        <v>1395.523821234427</v>
       </c>
       <c r="O43" t="n">
-        <v>2003.682813232012</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794523</v>
@@ -7596,25 +7596,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T43" t="n">
-        <v>1743.834164657642</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U43" t="n">
-        <v>1463.698826283924</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="V43" t="n">
-        <v>1350.520909857654</v>
+        <v>1616.567059496696</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.668506030167</v>
+        <v>1341.714655669209</v>
       </c>
       <c r="X43" t="n">
-        <v>833.104609475972</v>
+        <v>1099.150759115014</v>
       </c>
       <c r="Y43" t="n">
-        <v>606.761841165714</v>
+        <v>1099.150759115014</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1172.94542395534</v>
+        <v>842.2366251795563</v>
       </c>
       <c r="C44" t="n">
-        <v>746.0446939686402</v>
+        <v>842.2366251795563</v>
       </c>
       <c r="D44" t="n">
-        <v>746.0446939686402</v>
+        <v>842.2366251795563</v>
       </c>
       <c r="E44" t="n">
-        <v>320.0677541164978</v>
+        <v>842.2366251795563</v>
       </c>
       <c r="F44" t="n">
-        <v>320.0677541164978</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
         <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589041</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103611</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M44" t="n">
         <v>1017.958031365649</v>
@@ -7669,31 +7669,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.77091479452</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.77091479452</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
-        <v>1925.631778790229</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U44" t="n">
-        <v>1667.4374438689</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V44" t="n">
-        <v>1309.948028995149</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W44" t="n">
-        <v>1172.94542395534</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X44" t="n">
-        <v>1172.94542395534</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y44" t="n">
-        <v>1172.94542395534</v>
+        <v>1262.084989471086</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>480.9271033705455</v>
       </c>
       <c r="D45" t="n">
-        <v>377.0871448858305</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>272.3852111587677</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>178.7393808416719</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772922</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589041</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745208</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K45" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L45" t="n">
-        <v>496.0652591283642</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M45" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N45" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O45" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P45" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
         <v>1668.279192602594</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.955188520548</v>
+        <v>845.4008954910277</v>
       </c>
       <c r="C46" t="n">
-        <v>917.9826253994636</v>
+        <v>673.4283323699436</v>
       </c>
       <c r="D46" t="n">
-        <v>754.6658525262343</v>
+        <v>510.1115594967143</v>
       </c>
       <c r="E46" t="n">
-        <v>588.4576466790878</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="F46" t="n">
-        <v>416.5958724536482</v>
+        <v>343.9033536495679</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574695</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589041</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J46" t="n">
         <v>162.6349221330689</v>
       </c>
       <c r="K46" t="n">
-        <v>491.685460761357</v>
+        <v>285.9781189255824</v>
       </c>
       <c r="L46" t="n">
-        <v>977.56884454457</v>
+        <v>395.4726091176303</v>
       </c>
       <c r="M46" t="n">
-        <v>1093.544903181524</v>
+        <v>924.5709105292748</v>
       </c>
       <c r="N46" t="n">
-        <v>1208.040158323044</v>
+        <v>1437.099088512675</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280802</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.878861502256</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.77091479452</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.77091479452</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563494</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657639</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.698826283921</v>
+        <v>1891.723027423366</v>
       </c>
       <c r="V46" t="n">
-        <v>1463.698826283921</v>
+        <v>1610.011560031395</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.846422456434</v>
+        <v>1335.159156203908</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.846422456434</v>
+        <v>1092.595259649713</v>
       </c>
       <c r="Y46" t="n">
-        <v>1188.846422456434</v>
+        <v>1035.566864203093</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307789</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N13" t="n">
-        <v>208.7016248853229</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713344</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>208.0044056307789</v>
       </c>
       <c r="M16" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>186.8389690765184</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>265.0931252575132</v>
+        <v>265.0931252575136</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>141.2399822880253</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>282.8953427940875</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>134.8781695713337</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>134.8781695713343</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>308.7547637634489</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>129.9928201901496</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>360.201473873907</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>307.5560500126518</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>265.0931252575135</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>158.5724178990223</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.7189728340902</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>307.5560500126509</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.5560500126521</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>265.0931252575131</v>
+        <v>265.0931252575135</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>136.8880587814653</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891725</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>360.2014738739067</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>423.4201561955201</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>433.5983958225635</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>265.0931252575133</v>
+        <v>265.0931252575135</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.7189728340893</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>307.5560500126509</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>461.3324725154311</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0931252575131</v>
+        <v>265.0931252575135</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>134.8781695713343</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>129.2956009356064</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>231.3726567572036</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575131</v>
+        <v>265.0931252575136</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>261.0326869852843</v>
+        <v>108.1301643813464</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>134.8781695713336</v>
+        <v>265.0931252575141</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>208.0044056307791</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>357.9105776278333</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11457,19 +11457,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>41.99521947297723</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>231.3726567572003</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>326.9919595089728</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442483</v>
+        <v>194.6994063517006</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.238578725226</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.86445058122965</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>279.654147278816</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.3326602613779</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>137.1421598129225</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>159.2476673817218</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>283.0639612370512</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442483</v>
@@ -23791,13 +23791,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>371.7335057750946</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>93.45737358347812</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>149.5701354807425</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>107.0702704607711</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>346.0771733222528</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>132.1588761196691</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>277.4797624394121</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>393.0974427789288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>69.63188439945779</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,10 +24454,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>262.2856399130486</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>134.6334252687483</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>219.6503807639024</v>
+        <v>249.3590243171948</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>118.3285125918451</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>33.21939590693023</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>68.87951289347694</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>188.3382069347213</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
@@ -25216,10 +25216,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>147.9452924264237</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>118.6158041851234</v>
       </c>
       <c r="I37" t="n">
         <v>71.96559361603954</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>114.5512613505593</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,7 +25408,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>276.460306088397</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.9258463487038</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>148.0423010770873</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>341.1063311186648</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>12.59592570620208</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,13 +25791,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>8.907856646549902</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8482154560438</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>302.2343202085643</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>256.7948572132457</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.36198742841761</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>167.6212291350021</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319937.3080368945</v>
+        <v>319937.3080368944</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>438253.9169605088</v>
+        <v>438253.9169605089</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>438253.9169605088</v>
+        <v>438253.9169605089</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>319937.3080368944</v>
+        <v>319937.3080368943</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>319937.308036894</v>
+        <v>319937.3080368944</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         <v>502037.5599860538</v>
       </c>
       <c r="D2" t="n">
-        <v>502037.5599860538</v>
+        <v>502037.5599860537</v>
       </c>
       <c r="E2" t="n">
+        <v>298537.2081436682</v>
+      </c>
+      <c r="F2" t="n">
         <v>298537.2081436683</v>
       </c>
-      <c r="F2" t="n">
-        <v>298537.2081436681</v>
-      </c>
       <c r="G2" t="n">
-        <v>298537.2081436683</v>
+        <v>298537.2081436684</v>
       </c>
       <c r="H2" t="n">
+        <v>298537.2081436684</v>
+      </c>
+      <c r="I2" t="n">
+        <v>374679.9341224727</v>
+      </c>
+      <c r="J2" t="n">
+        <v>374679.9341224727</v>
+      </c>
+      <c r="K2" t="n">
+        <v>374679.9341224727</v>
+      </c>
+      <c r="L2" t="n">
+        <v>374679.9341224727</v>
+      </c>
+      <c r="M2" t="n">
         <v>298537.2081436682</v>
-      </c>
-      <c r="I2" t="n">
-        <v>374679.9341224728</v>
-      </c>
-      <c r="J2" t="n">
-        <v>374679.9341224728</v>
-      </c>
-      <c r="K2" t="n">
-        <v>374679.9341224728</v>
-      </c>
-      <c r="L2" t="n">
-        <v>374679.9341224729</v>
-      </c>
-      <c r="M2" t="n">
-        <v>298537.2081436681</v>
       </c>
       <c r="N2" t="n">
         <v>298537.2081436683</v>
@@ -26355,7 +26355,7 @@
         <v>298537.2081436682</v>
       </c>
       <c r="P2" t="n">
-        <v>298537.2081436679</v>
+        <v>298537.2081436681</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222535</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.062368439510465e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048184</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160767</v>
+        <v>79247.32527160761</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>323720.8540144446</v>
       </c>
       <c r="E4" t="n">
+        <v>21842.84887867284</v>
+      </c>
+      <c r="F4" t="n">
         <v>21842.84887867285</v>
       </c>
-      <c r="F4" t="n">
-        <v>21842.84887867283</v>
-      </c>
       <c r="G4" t="n">
-        <v>21842.84887867283</v>
+        <v>21842.84887867285</v>
       </c>
       <c r="H4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867286</v>
       </c>
       <c r="I4" t="n">
-        <v>64149.91250646634</v>
+        <v>64149.91250646637</v>
       </c>
       <c r="J4" t="n">
-        <v>64149.91250646629</v>
+        <v>64149.91250646635</v>
       </c>
       <c r="K4" t="n">
         <v>64149.91250646635</v>
       </c>
       <c r="L4" t="n">
-        <v>64149.9125064663</v>
+        <v>64149.91250646635</v>
       </c>
       <c r="M4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867285</v>
       </c>
       <c r="N4" t="n">
-        <v>21842.84887867283</v>
+        <v>21842.84887867285</v>
       </c>
       <c r="O4" t="n">
-        <v>21842.84887867283</v>
+        <v>21842.84887867286</v>
       </c>
       <c r="P4" t="n">
-        <v>21842.84887867281</v>
+        <v>21842.84887867286</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361158</v>
+        <v>56429.32173361156</v>
       </c>
       <c r="J5" t="n">
         <v>56429.32173361156</v>
@@ -26508,10 +26508,10 @@
         <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650119</v>
+        <v>43269.71441650123</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144689.1059716093</v>
+        <v>144667.3923301128</v>
       </c>
       <c r="C6" t="n">
-        <v>144689.1059716092</v>
+        <v>144667.3923301128</v>
       </c>
       <c r="D6" t="n">
-        <v>144689.1059716092</v>
+        <v>144667.3923301128</v>
       </c>
       <c r="E6" t="n">
-        <v>-323265.0110737594</v>
+        <v>-323868.1542919481</v>
       </c>
       <c r="F6" t="n">
-        <v>233424.6448484941</v>
+        <v>232821.5016303053</v>
       </c>
       <c r="G6" t="n">
-        <v>233424.6448484943</v>
+        <v>232821.5016303054</v>
       </c>
       <c r="H6" t="n">
-        <v>233424.644848494</v>
+        <v>232821.5016303054</v>
       </c>
       <c r="I6" t="n">
-        <v>196544.516701913</v>
+        <v>196158.9241293778</v>
       </c>
       <c r="J6" t="n">
-        <v>254100.699882395</v>
+        <v>253715.1073098597</v>
       </c>
       <c r="K6" t="n">
-        <v>254100.6998823949</v>
+        <v>253715.1073098597</v>
       </c>
       <c r="L6" t="n">
-        <v>254100.699882395</v>
+        <v>253715.1073098596</v>
       </c>
       <c r="M6" t="n">
-        <v>154177.3195768864</v>
+        <v>153574.1763586977</v>
       </c>
       <c r="N6" t="n">
-        <v>233424.6448484943</v>
+        <v>232821.5016303053</v>
       </c>
       <c r="O6" t="n">
-        <v>233424.6448484942</v>
+        <v>232821.5016303053</v>
       </c>
       <c r="P6" t="n">
-        <v>233424.6448484939</v>
+        <v>232821.5016303051</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>534.4427286986307</v>
@@ -26807,10 +26807,10 @@
         <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195244</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="P4" t="n">
-        <v>534.44272869863</v>
+        <v>534.4427286986307</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.643808914863719e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208936</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777374</v>
+        <v>318.0018188777372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.643808914863719e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32168,28 +32168,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N17" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357951</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32405,28 +32405,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H20" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J20" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357951</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K21" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q21" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32642,28 +32642,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N22" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P22" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H23" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J23" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N23" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357951</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K24" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q24" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32879,28 +32879,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N25" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H26" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J26" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N26" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U26" t="n">
         <v>0.1589687374357951</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K27" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q27" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33116,28 +33116,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N28" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P28" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H29" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J29" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N29" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U29" t="n">
         <v>0.1589687374357951</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K30" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q30" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33353,28 +33353,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N31" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P31" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H32" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J32" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N32" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U32" t="n">
         <v>0.1589687374357951</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q33" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33590,28 +33590,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N34" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P34" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R35" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33827,28 +33827,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R38" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34064,28 +34064,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R41" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R44" t="n">
-        <v>124.8227494118877</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163658</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35509,7 +35509,7 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.9691469604239</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R12" t="n">
         <v>42.33856763136923</v>
@@ -35570,25 +35570,25 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507201</v>
+        <v>318.6049007742617</v>
       </c>
       <c r="M13" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N13" t="n">
-        <v>324.3533977555453</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
         <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301869</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M15" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622836</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742617</v>
       </c>
       <c r="M16" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>290.3278809635186</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297613</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784337</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011801</v>
@@ -35892,22 +35892,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J18" t="n">
-        <v>344.9308271163658</v>
+        <v>344.9308271163661</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392515</v>
@@ -35986,7 +35986,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K19" t="n">
-        <v>332.3742814427153</v>
+        <v>223.8338504842537</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M19" t="n">
         <v>534.4427286986307</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>115.6517728702223</v>
       </c>
       <c r="O19" t="n">
-        <v>386.3842546810876</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297615</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
         <v>217.0031433876725</v>
@@ -36129,22 +36129,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885253</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M21" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>316.1313550772143</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.9691469604239</v>
+        <v>247.8473165317582</v>
       </c>
       <c r="R21" t="n">
-        <v>148.85927498986</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>419.3552589069317</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N22" t="n">
-        <v>115.6517728702224</v>
+        <v>115.6517728702223</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>215.4166036731257</v>
       </c>
       <c r="Q22" t="n">
         <v>202.9212659517818</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J23" t="n">
-        <v>534.9195310038328</v>
+        <v>499.4349253750872</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876725</v>
@@ -36366,22 +36366,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>619.0437785791337</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P23" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550237</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R23" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>344.930827116366</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>366.9063468105372</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M24" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392515</v>
@@ -36460,7 +36460,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>168.7377161819336</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J26" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>524.5591934003235</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
         <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N26" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676758</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J27" t="n">
-        <v>344.9308271163657</v>
+        <v>344.930827116366</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M27" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392515</v>
@@ -36697,7 +36697,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K28" t="n">
-        <v>219.4819269776937</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
         <v>490.7912967507201</v>
@@ -36773,7 +36773,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J29" t="n">
-        <v>499.4349253750868</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
@@ -36840,22 +36840,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>734.9078847620018</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969608</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992006</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885253</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M30" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392515</v>
@@ -36931,10 +36931,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>378.0622722179372</v>
+        <v>378.0622722179374</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427153</v>
@@ -36998,7 +36998,7 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N31" t="n">
         <v>517.7052302862629</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>168.7377161819327</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J32" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>524.5591934003235</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
         <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N32" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550237</v>
+        <v>639.7932384704548</v>
       </c>
       <c r="R32" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J33" t="n">
-        <v>344.9308271163657</v>
+        <v>344.930827116366</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M33" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392515</v>
@@ -37171,7 +37171,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786183</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163657</v>
+        <v>79.83770185885253</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M36" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317582</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K37" t="n">
-        <v>332.3742814427153</v>
+        <v>211.8894691318347</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
-        <v>348.5201907339243</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297613</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784337</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K38" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163657</v>
+        <v>344.9308271163661</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M39" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>371.6331821287671</v>
+        <v>218.7306595248292</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O40" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297613</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969611</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.12755337977123</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J42" t="n">
-        <v>214.7158714301862</v>
+        <v>344.9308271163666</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L43" t="n">
-        <v>318.6049007742619</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
-        <v>485.006411183165</v>
+        <v>461.3994895148334</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011808</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709128</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>271.5415648594465</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>148.85927498986</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>332.3742814427153</v>
+        <v>124.5890876692056</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O46" t="n">
-        <v>334.8615686442005</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P46" t="n">
         <v>401.3391416378323</v>
